--- a/assets/arabic_data.xlsx
+++ b/assets/arabic_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\StudioProjects\aurad_fatiha\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\aurad_fatiha\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E8CBB-6981-443B-9F88-E5E91377A551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB47C658-4177-4FD2-8E84-52E531019FFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D05B2C0-A16B-412F-AE50-9F70ED490B59}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="651">
   <si>
     <t>يَا مَلِكُ</t>
   </si>
@@ -123,9 +123,6 @@
     <t>يَا مُنْتَقِمُ</t>
   </si>
   <si>
-    <t>يَا مَالِكَ الْمُلْكِ</t>
-  </si>
-  <si>
     <t>يَا رَبُّ</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>غُفْرَانَكَ رَبَّنَا وَاِلَيْكَ الْمَصِيرُ</t>
   </si>
   <si>
-    <t>سُبْحَانَ رَبِّى الْعَلِىِّ الْاَعْلَى الْوَهَّابِ</t>
-  </si>
-  <si>
     <t>سُبْحَانَكَ مَا عَبَدْنَاكَ حَقَّ عِبَادَتِكَ</t>
   </si>
   <si>
@@ -429,18 +423,9 @@
     <t>يَا رَشِيْدُ</t>
   </si>
   <si>
-    <t>يَا صَبُوْرُ</t>
-  </si>
-  <si>
     <t>يَا سَتَّارُ</t>
   </si>
   <si>
-    <t>يَا مَنْ تَقَدَّسَتْ عَنِ الْاَشْبَاهِ ذَاتُهٗ</t>
-  </si>
-  <si>
-    <t>وَتَنَزَّهَتْ عَنْ مُشَابَهَةِ الْاَمْثَالِ صِفَاتُهٗ</t>
-  </si>
-  <si>
     <t>وَاحِدٌ لَّا مِنْ قِلَّةٍ وَّ مَوْجُوْدُ لَّا مِنْ عِلَّةٍ</t>
   </si>
   <si>
@@ -453,9 +438,6 @@
     <t>سَهِّلْ عَلَيْنَا وَ عَلٰى وَالِدَيْنَا كُلَّ عَسِيْرٍ</t>
   </si>
   <si>
-    <t>يَفْعَلُ اللّٰهُ مَا يَشَآءُ بِقُدْرَتِهٖ وَيَحْكُمُ مَا يُرِيدُ بِعِزَّتِهٖ اِلَآ اِلَى اللّٰهِ تَصِيْرُ الْاُمُوْرُ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> كُلُّ شَىْءٍ هَالِكٌ اِلَّا وَجْهَهٗ لَهُ الْحُكْمُ وَاِلَيْهِ تُرْجَعُوْنَ</t>
   </si>
   <si>
@@ -469,9 +451,6 @@
   </si>
   <si>
     <t>حَسْبُنَا اللّٰهُ عِنْدَ الْلِّقَآءِ</t>
-  </si>
-  <si>
-    <t>وَصَلِّ عَلٰى سَيِّدِنَا مُحَمَّدٍ  كُلَّمَا غَفَلَ عَنْ ذِكْرِهِ الْغَافِلُوْنَ</t>
   </si>
   <si>
     <t>مَرْحَبًا بِّالْصَّبَاحِ الْجَدِيْدِ وَ بِالْيَوْمِ السَّعِيدِ وَبِالْمَلَكَيْنِ الْكَاتِبَيْنِ الشَّاهِدَيْنِ الْعَادِلَيْنِ</t>
@@ -493,9 +472,6 @@
 </t>
   </si>
   <si>
-    <t>مُتَلَزِّذِيْنَ بِذِكْرِكَ فَرِحِيْنَ بِكِتَابِكَ مُنَاجِيْنَ بِكَ فِىْ اٰنَآءِ اللَّيْلِ وَ اَطْرَافِ النَّهَارِ</t>
-  </si>
-  <si>
     <t>مُبْغِضِيْنَ لِلدُّنْيَا وَ مُحِبِّيْنَ لِلْاٰخِرَةِ مُشْتَاقِيْنَ اِلٰى لِقَآئِكَ</t>
   </si>
   <si>
@@ -511,9 +487,6 @@
     <t>وَيَا غِيَاثَ الْمُسْتَغِيْثِيْنَ اَغِثْنَا</t>
   </si>
   <si>
-    <t>اَللّٰهُمَّ صَلِّ عَلٰى سَيِّدِنَا مُحَمَّدٍ  كُلَّمَا ذَكَرَهُ الذَّاكِرُوْنَ</t>
-  </si>
-  <si>
     <t>اَللّٰهُمَّ صَلِّ عَلٰى سَيِّدِنَا مُحَمَّدٍ فِى الْاَوَّلِيْنَ</t>
   </si>
   <si>
@@ -640,9 +613,6 @@
     <t>لَآ اِلٰهَ اِلَّا اللّٰهُ اَرْحَمُ الرَّاحِمِيْنَ</t>
   </si>
   <si>
-    <t>سُبْحَانَ رَبِّى الْعَلِىِّ الْاَعْلَى الْكَرِيْمُِ الْوَهَّابُ يَا وَهَّابُ</t>
-  </si>
-  <si>
     <t>سُبْحَانَ اللّٰهِ الْوَاحِدِ الْاَحَدِ</t>
   </si>
   <si>
@@ -718,12 +688,6 @@
     <t>لَآ اِلٰهَ اِلَّا اللّٰهُ اِيْمَانًا وَّصِدْقًا</t>
   </si>
   <si>
-    <t>لَآ اِلٰهَ اِلَّا اللّٰهُ وَحْدَهٗ وَصَدَقَ وَعُدَهٗ وَنَصَرَعَبْدَهٗ وَاَعَزَّ جُنْدُهٗ وَهَذَمَ الْاَحْزَابَ وَحْدَهٗ وَلَآ شَىْءَ بَعْدَهٗ</t>
-  </si>
-  <si>
-    <t>لَآ اُحْصِىْ ثَنَآءً عَلَيْكَ اَنْتَ كَمَآ اَثْنَيْتَ عَلٰى نَفْسِكَ عَزَّ جَارُكَ وَجَلَّ ثَنَآءىُكَ</t>
-  </si>
-  <si>
     <t>وَتَقَدَّسَتْ اَسْمَاؤُكَ وَعَظُمَ شَانُكَ وَلَآ اِلٰهَ غَيْرُكَ</t>
   </si>
   <si>
@@ -763,9 +727,6 @@
     <t xml:space="preserve">اَلصَّلٰوةُ والسَّلَامُ عَلَيْكَ  يَا خَاتِمَ النَّبِيِّيْنَ </t>
   </si>
   <si>
-    <t>اَلصَّلٰوةُ والسَّلَامُ عَلَيْكَ يَا شَفِىْعَ الْمَذْنِبِيْنَ (3)</t>
-  </si>
-  <si>
     <t>اَلصَّلوةُ وَالسَّلَامُ عَلَيْكَ يَا رَحْمَةً الِّلْعٰلَمِيْنَ</t>
   </si>
   <si>
@@ -829,9 +790,6 @@
     <t xml:space="preserve"> هُوَ الْاَوَّلُ وَلْاٰخِرُ وَالظَّاهِرُ وَالْبَاطِنُ وَهُوَ بِكُلِّ شَىْءٍ عَلِيمٌ لَيْسَ كَمِثْلِهٖ شَىْءٌ وَّهُوَ السَّمِيعُ الْبَصِيْرُ</t>
   </si>
   <si>
-    <t>اَللّٰهُمَّ لَا مَانِعَ لِمَا اَعْطَيْتَ وَلَا مُعْطِىَ لِمَا مَنَعْتَ وَلَا رَاَدَّ لِمَا قَضَيْتَ وَلَا يَنْفَعُ ذَالْجَدِّ مِنْكَ الْجَدُّ</t>
-  </si>
-  <si>
     <t>سُبْحَنَ اللّٰهِ رَافِعِ السَّمٰوَاتِ بِغَيْرِ عَمَدٍ</t>
   </si>
   <si>
@@ -859,9 +817,6 @@
     <t>يَا مُؤْمِنُ</t>
   </si>
   <si>
-    <t>يَا مُزِلُّ</t>
-  </si>
-  <si>
     <t>يَا ذَالْجَلَالِ وَالْاِكْرَامِ</t>
   </si>
   <si>
@@ -874,18 +829,9 @@
     <t>اَوَّلٌ قَدِيْمٌ بِلَا ِابْتِدَآءٍ وَّ اٰخِرٌ كَرِيْمٌ بِلَا اِنْتِهَآءٍ</t>
   </si>
   <si>
-    <t>يَا دَآئِمًا بِلَا فَنَآءٍ وَّ يَا قَآئِمًا بِلَا زَوَالٍ وَّ يَا مُدَبَّراً بِلَا وَزِيْرٍ</t>
-  </si>
-  <si>
-    <t>سُبْحَانَ مَنْ لَمْ يَزَلْ رَبّا رَّحِيْمًا وَّلَا يَزَالُ كَرِيْماً</t>
-  </si>
-  <si>
     <t>سُبْحَانَ اللّٰهِ وَتَبَارَكَ اللّٰهُ رَبُّ السَّمٰوَاتِ اسَّبْع وَرَبُّ الْعَرْشِ الْعَظِيمِ وَالْحَمْدُ لِلّٰهِ رَبِّ الْعٰلَمِيْنَ</t>
   </si>
   <si>
-    <t>لَآ اِلٰهَ اِلَّا اللّٰهُ وَحْدَهٗ لَا شَرِيْكَ لَهٗ اِلٰهًا وَاحِدًا اَحَدًا صَمَدًا فَرْدًا وَّتْرًا حَيًّا قَيُّوْمًا دَآئِمًا اَبَدًا</t>
-  </si>
-  <si>
     <t>لَّمْ يَتَّخِذْ صَاحِبَةً وّلَا وَلَدًا وَّلَمْ يَّكُن لَهٗ شَرِيْكٌ فِى الْمُلْكِ وَلَمْ يَّكُنْ لَّهٗ وَلِىٌّ مِنَ الذُّلِّ وَكَبِّرْهُ تَكْبِيْرًا</t>
   </si>
   <si>
@@ -916,9 +862,6 @@
     <t>الْحَمْدُ لِلّٰهِ الَّذِىْ اَحْيَانَا بَعْدَ مَآ اَمَاتَنَا وَ اِلَيْهِ الْبَعْثَ وَالنُّشُورُ</t>
   </si>
   <si>
-    <t xml:space="preserve"> اَصْبَحْنَا وَ اَصْبَحَ الْمُلْكُ لِلّٰهِ وَالْعِزَّةُ وَ الْعَزْمَةُ وَالْكِبْرِيَآءُ وَالْجَبَرُوتُ وَالسُّلْطَانُ وَالْبُرْهَانُ لِلّٰهِ ، وَالْاٰلَآءُ وَالنَّعْمَآءُ لِلّٰهِ، وَاللَّيْلُ وَالنَّهَارُ لِلّٰهِ وَمَا سَكَنَ فِيْهِمَا لِلَّهِ الْوَاحِدِ الْقَهَّارِ</t>
-  </si>
-  <si>
     <t>اَصْبَحْنَا عَلٰى فِطْرَةِ الْاِسْلَامِ وَكَلِمَةِ الْاِخْلَاصِ</t>
   </si>
   <si>
@@ -934,9 +877,6 @@
     <t>اَلصَّلٰوةُ والسَّلَامُ عَلَيْكَ يَا خَيْرَ خَلْقِ اللّٰهِ</t>
   </si>
   <si>
-    <t>اَلصَّلٰوةُ وَالسَّلَامُ عَلَيْكَ يَا مَنِ اخْتَارَهُ اللهُ</t>
-  </si>
-  <si>
     <t>اَلصَّلٰوةُ والسَّلَامُ عَلَيْكَ يَا مَنْ اَرْسَلَهُ اللّٰهُ</t>
   </si>
   <si>
@@ -949,9 +889,6 @@
     <t>اَلصَّلٰوةُ وَالسَّلَامُ عَلَيْكَ يَا مَنْ كَرَّمَهُ اللّٰهُ</t>
   </si>
   <si>
-    <t xml:space="preserve">اَلصَّلٰوةُ والسَّلَامُ عَلَيْكَ يَا  عَظَّمَهُ اللّٰهُ </t>
-  </si>
-  <si>
     <t>صَلَوٰتُ اللّٰهِ تَعَالٰى وَمَلَآئِكَتِهٖ وَ اَنْبِيَآئِهٖ وَرُسُلِهٖ وَ حَمَلَةِ عَرْشِهٖ وَ جَمِيْعَ خَلْقِهٖ عَلٰى سَيِّدِنَا مُحَمَّدٍ وَّاٰلِهٖ وَ اَصْحَابِهٖ عَلَيْهِ وَ عَلَيْهِمُ السَّلَامُ وَرَحْمَةُ اللّٰهِ وَبَرَكَاتُهٗ</t>
   </si>
   <si>
@@ -964,12 +901,6 @@
     <t>دُعَاءِ رِقَابْ</t>
   </si>
   <si>
-    <t>اٰمِنِيْنَ بِعَدْلِكَ اٰيِسِيْنَ مِنْ خَلْقِكَ</t>
-  </si>
-  <si>
-    <t>اٰنِسِيْنَ بِكَ مُسْتَوْحِشِيْنَ عَنْ غَيْرِكَ رَاضِيْنَ بِقَضَآئِكَ صَابِرِيْنَ عَلٰى بَلَآئِكَ</t>
-  </si>
-  <si>
     <t xml:space="preserve">قَانِعِيْنَ لِعَطَائِكَ شَاكِرِيْنَ لِنَعْمَآئِكَ </t>
   </si>
   <si>
@@ -989,9 +920,6 @@
   </si>
   <si>
     <t>اَللّٰهُمَّ يَا حَبِيْبَ التَّوَّابِيْنَ تُبْ عَلَيْنَا وَ يَآ اَمَانَ الْخَآئِفِيْنَ اٰمِنَّا</t>
-  </si>
-  <si>
-    <t>وَ يَا دَلِيْلَ الْمُتَحَيِّريْنَ دُلَّنَا وَ يَا هَادِى الْمُضَلِّيْنَ اهْدِنَا</t>
   </si>
   <si>
     <t>وَيَا رَجَآءَ الْمُنْقَطِعِيْنَ لَا تَقْطَعْ رَجَآئَنَا</t>
@@ -1646,9 +1574,6 @@
     <t>اللہ کے سوا کوئی معبود نہیں وہ تنہا ہے اسکا کوئی شریک نہیں ایسا معبود جو تنہا ویکتا ، بے نیاز ، یگانہ ، طاق ، زندہ، قائم و دائم اور ہمیشہ رہنے والا ہے</t>
   </si>
   <si>
-    <t>اللهُ أَكْبَرُ</t>
-  </si>
-  <si>
     <t>اللہ ہی ہمارے دین کے لئے کافی ہے</t>
   </si>
   <si>
@@ -1866,9 +1791,6 @@
     <t>اے اللہ ! اس اور اد فتحیہ کی برکت سے کھول دے ہمارے لئے اپنی مہربانیوں اور بخششوں کے دروازے</t>
   </si>
   <si>
-    <t>اور ہمیں اپنی فرماں برداری اور عبادتوں کی توفیق اور برکت دے ہمیں رزق، عمر اور نیکیوں میں</t>
-  </si>
-  <si>
     <t>تیری رحمت سے اے سب سے زیادہ رحم کرنے والے</t>
   </si>
   <si>
@@ -2007,6 +1929,93 @@
   </si>
   <si>
     <t xml:space="preserve">جس نے نہ بیوی ہی اختیار کی ، اور نہ ہی اسی کوئی اولاد ہے اور نہ ہی ملک میں اسکا کوئی شریک ہے اور (کمزوری یا عیب کے سبب ) اسکا کوئی معاون و مددگار نہیں ہے </t>
+  </si>
+  <si>
+    <t>لَآ اِلٰهَ اِلَّا اللّٰهُ وَحْدَهٗ وَصَدَقَ وَعُدَهٗ وَنَصَرَعَبْدَهٗ وَاَعَزَّ جُنْدَهٗ وَهَذَمَ الْاَحْزَابَ وَحْدَهٗ وَلَآ شَىْءَ بَعْدَهٗ</t>
+  </si>
+  <si>
+    <t>اَللّٰهُمَّ لَا مَانِعَ لِمَا اَعْطَيْتَ وَلَا مُعْطِىَ لِمَا مَنَعْتَ وَلاَ رآدَّ لِمَا قَضَيْتَ وَلَا يَنْفَعُ ذَالْجَدِّ مِنْكَ الْجَدُّ</t>
+  </si>
+  <si>
+    <t>سُبْحَانَ رَبِّىَ الْعَلِىِّ الْاَعْلَى الْكَرِيْمِ الْوَهَّابِ يَا وَهَّابُ</t>
+  </si>
+  <si>
+    <t>يَا مَالِكُ الْمُلْكِ</t>
+  </si>
+  <si>
+    <t>وَتَنَزَّهَ عَنْ مُشَابَهَةِ الْاَمْثَالِ صِفَاتُهٗ</t>
+  </si>
+  <si>
+    <t>يَا دَآئِمًا بِلَا فَنَآءٍ وَّ يَا قَآئِمًا بِلَا زَوَالٍ وَّ يَا مُدَبِّرًا بِلَا وَزِيْرٍ</t>
+  </si>
+  <si>
+    <t>لَآ اُحْصِىْ ثَنَآءً عَلَيْكَ اَنْتَ كَمَآ اَثْنَيْتَ عَلٰى نَفْسِكَ عَزَّ جَارُكَ وَجَلَّ ثَنَآءُكَ</t>
+  </si>
+  <si>
+    <t>يَفْعَلُ اللّٰهُ مَا يَشَآءُ بِقُدْرَتِهٖ وَيَحْكُمُ مَا يُرِيدُ بِعِزَّتِهٖ اَلَآ اِلَى اللّٰهِ تَصِيْرُ الْاُمُوْرُ</t>
+  </si>
+  <si>
+    <t>سُبْحَانَ مَنْ لَمْ يَزَلْ رَبًّا رَّحِيْمًا وَّلَا يَزَالُ كَرِيْماً</t>
+  </si>
+  <si>
+    <t>لَآ اِلٰهَ اِلَّا اللّٰهُ وَحْدَهٗ لَا شَرِيْكَ لَهٗ اِلٰهًا وَاحِدًا اَحَدًا صَمَدًا فَرْدًا وِّتْرًا حَيًّا قَيُّوْمًا دَآئِمًا اَبَدًا</t>
+  </si>
+  <si>
+    <t>سُبْحَانَ رَبِّى الْعَلِىِّ الْاَعْلَى الْوَهَّابِ (2)</t>
+  </si>
+  <si>
+    <t>يَا مُذِلُّ</t>
+  </si>
+  <si>
+    <t>يَا صَبُوْرُ(2)</t>
+  </si>
+  <si>
+    <t>اَصْبَحْنَا وَ اَصْبَحَ الْمُلْكُ لِلّٰهِ الْعِزَّةُ وَ الْعَظْمَةُ وَالْكِبْرِيَآءُ وَالْجَبَرُوتُ وَالسُّلْطَانُ وَالْبُرْهَانُ لِلّٰهِ ، وَالْاٰلَآءُ وَالنَّعْمَآءُ لِلّٰهِ، وَاللَّيْلُ وَالنَّهَارُ لِلّٰهِ وَمَا سَكَنَ فِيْهِمَا لِلَّهِ الْوَاحِدِ الْقَهَّارِ</t>
+  </si>
+  <si>
+    <t>وَ يَا دَلِيْلَ الْمُتَحَيِّريْنَ دُلَّنَا وَ يَا هَادِىَ الْمُضَلِّيْنَ اهْدِنَا</t>
+  </si>
+  <si>
+    <t>يَا مَنْ تَقَدَّسَ عَنِ الْاَشْبَاهِ ذَاتُهٗ</t>
+  </si>
+  <si>
+    <t>اَللّٰهُمَّ صَلِّ عَلٰى مُحَمَّدٍ  كُلَّمَا ذَكَرَهُ الذَّاكِرُوْنَ</t>
+  </si>
+  <si>
+    <t>وَصَلِّ عَلٰى مُحَمَّدٍ  كُلَّمَا غَفَلَ عَنْ ذِكْرِهِ الْغَافِلُوْنَ</t>
+  </si>
+  <si>
+    <t>اَلصَّلٰوةُ وَالسَّلَامُ عَلَيْكَ يَا مَنِ اخْتَارَهُ اللّٰهُ</t>
+  </si>
+  <si>
+    <t>اٰئِسِيْنَ بِكَ مُسْتَوْحِشِيْنَ عَنْ غَيْرِكَ رَاضِيْنَ بِقَضَآئِكَ صَابِرِيْنَ عَلٰى بَلَآئِكَ</t>
+  </si>
+  <si>
+    <t>اٰمِنِيْنَ بِعَدْلِكَ اٰئِسِيْنَ  مِنْ خَلْقِكَ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اَلصَّلٰوةُ والسَّلَامُ عَلَيْكَ يَا مَنْ  عَظَّمَهُ اللّٰهُ </t>
+  </si>
+  <si>
+    <t>اَلصَّلٰوةُ والسَّلَامُ عَلَيْكَ يَا شَفِيْعَ الْمَذْنِبِيْنَ (3)</t>
+  </si>
+  <si>
+    <t>مُتَلَذِّذِيْنَ بِذِكْرِكَ فَرِحِيْنَ بِكِتَابِكَ مُنَاجِيْنَ بِكَ فِىْ اٰنَآءِ اللَّيْلِ وَ اَطْرَافِ النَّهَارِ</t>
+  </si>
+  <si>
+    <t>آمین یا رب العالمین</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>اور ہمارے رزق اور ہمارے رزق برکت دے</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  اے اللہ ہمیں محفوظ رکھ اےفیض و برکت والے تمام آزمائشوں اور بیماریوں سے</t>
+  </si>
+  <si>
+    <t>ﷲ سب سے عظیم ہے</t>
   </si>
 </sst>
 </file>
@@ -2372,8 +2381,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B196" zoomScale="243" zoomScaleNormal="243" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A208" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F210" sqref="F210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2383,13 +2392,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C1" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,10 +2406,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="D2" s="3" t="str">
         <f t="shared" ref="D2:D66" si="0">"a"&amp;ROW()&amp;".mp3"</f>
@@ -2412,10 +2421,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="D3" s="3" t="str">
         <f>"a"&amp;ROW()&amp;".mp3"</f>
@@ -2427,10 +2436,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="D4" s="3" t="str">
         <f>"a"&amp;ROW()&amp;".mp3"</f>
@@ -2442,10 +2451,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2457,10 +2466,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2472,10 +2481,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2487,10 +2496,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2502,10 +2511,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2517,10 +2526,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2532,10 +2541,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C11" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2547,10 +2556,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2562,10 +2571,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="C13" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2577,10 +2586,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2592,10 +2601,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2607,10 +2616,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2622,10 +2631,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C17" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2637,10 +2646,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2652,10 +2661,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2667,10 +2676,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C20" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2682,13 +2691,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2696,10 +2705,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="C22" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2711,10 +2720,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2726,10 +2735,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2741,10 +2750,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2756,10 +2765,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2771,10 +2780,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2786,10 +2795,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2801,10 +2810,10 @@
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2816,10 +2825,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2831,10 +2840,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2846,10 +2855,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2861,10 +2870,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2876,10 +2885,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>362</v>
+        <v>338</v>
       </c>
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2891,10 +2900,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2906,10 +2915,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2921,10 +2930,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>365</v>
+        <v>341</v>
       </c>
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2936,10 +2945,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2951,10 +2960,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2966,10 +2975,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2981,10 +2990,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
@@ -2996,10 +3005,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3011,10 +3020,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3026,10 +3035,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="D44" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3041,10 +3050,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="D45" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3056,10 +3065,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="D46" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3071,10 +3080,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D47" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3086,10 +3095,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="D48" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3101,10 +3110,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
       <c r="D49" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3116,10 +3125,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="D50" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3131,10 +3140,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="D51" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3146,10 +3155,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="D52" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3161,10 +3170,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="D53" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3176,10 +3185,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
       <c r="D54" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3191,10 +3200,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="D55" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3206,10 +3215,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>622</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="D56" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3221,10 +3230,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D57" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3236,10 +3245,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="D58" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3251,10 +3260,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="D59" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3266,10 +3275,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="D60" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3281,10 +3290,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D61" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3296,10 +3305,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D62" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3311,10 +3320,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="D63" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3326,10 +3335,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>267</v>
+        <v>623</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="D64" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3341,10 +3350,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>632</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="D65" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3356,10 +3365,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>624</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="D66" s="3" t="str">
         <f t="shared" si="0"/>
@@ -3371,10 +3380,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="D67" s="3" t="str">
         <f t="shared" ref="D67:D130" si="1">"a"&amp;ROW()&amp;".mp3"</f>
@@ -3386,10 +3395,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="D68" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3401,10 +3410,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="D69" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3416,10 +3425,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="D70" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3431,10 +3440,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="D71" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3446,10 +3455,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D72" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3461,10 +3470,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="D73" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3476,10 +3485,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D74" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3491,10 +3500,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="D75" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3506,10 +3515,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="D76" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3521,10 +3530,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="D77" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3536,10 +3545,10 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="D78" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3551,10 +3560,10 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="D79" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3566,10 +3575,10 @@
         <v>80</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="D80" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3581,10 +3590,10 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="D81" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3596,10 +3605,10 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="D82" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3611,10 +3620,10 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="D83" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3626,10 +3635,10 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="D84" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3641,10 +3650,10 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D85" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3659,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="D86" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3671,10 +3680,10 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="D87" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3686,10 +3695,10 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="D88" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3701,10 +3710,10 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="D89" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3716,10 +3725,10 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="D90" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3731,10 +3740,10 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="D91" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3749,7 +3758,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="D92" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3761,10 +3770,10 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D93" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3779,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="D94" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3791,10 +3800,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="D95" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3809,7 +3818,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="D96" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3824,7 +3833,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="D97" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3839,7 +3848,7 @@
         <v>5</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="D98" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3854,7 +3863,7 @@
         <v>6</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="D99" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3869,7 +3878,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="D100" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3884,7 +3893,7 @@
         <v>8</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="D101" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3896,10 +3905,10 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="D102" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3914,7 +3923,7 @@
         <v>9</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="D103" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3929,7 +3938,7 @@
         <v>10</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="D104" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3941,10 +3950,10 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="D105" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3959,7 +3968,7 @@
         <v>11</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="D106" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3974,7 +3983,7 @@
         <v>12</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="D107" s="3" t="str">
         <f t="shared" si="1"/>
@@ -3986,10 +3995,10 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>277</v>
+        <v>633</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="D108" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4004,7 +4013,7 @@
         <v>13</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="D109" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4016,10 +4025,10 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="D110" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4034,7 +4043,7 @@
         <v>14</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="D111" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4046,10 +4055,10 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D112" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4061,10 +4070,10 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="D113" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4076,10 +4085,10 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="D114" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4091,10 +4100,10 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="D115" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4106,10 +4115,10 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C116" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="D116" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4121,10 +4130,10 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
       <c r="D117" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4136,10 +4145,10 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D118" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4151,10 +4160,10 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="D119" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4166,10 +4175,10 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="D120" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4181,10 +4190,10 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="D121" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4199,7 +4208,7 @@
         <v>15</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="D122" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4214,7 +4223,7 @@
         <v>16</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="D123" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4226,10 +4235,10 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="D124" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4241,10 +4250,10 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
       <c r="D125" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4256,10 +4265,10 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="D126" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4271,10 +4280,10 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="D127" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4289,7 +4298,7 @@
         <v>17</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="D128" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4301,10 +4310,10 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="D129" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4316,10 +4325,10 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="D130" s="3" t="str">
         <f t="shared" si="1"/>
@@ -4331,10 +4340,10 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="D131" s="3" t="str">
         <f t="shared" ref="D131:D194" si="2">"a"&amp;ROW()&amp;".mp3"</f>
@@ -4349,7 +4358,7 @@
         <v>18</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="D132" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4361,10 +4370,10 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="D133" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4379,7 +4388,7 @@
         <v>19</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="D134" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4391,10 +4400,10 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="D135" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4406,10 +4415,10 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="D136" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4421,10 +4430,10 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="D137" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4436,10 +4445,10 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="D138" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4451,10 +4460,10 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="D139" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4466,10 +4475,10 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="D140" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4481,10 +4490,10 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="D141" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4496,10 +4505,10 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="D142" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4511,10 +4520,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="D143" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4526,10 +4535,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="D144" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4541,10 +4550,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="D145" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4556,10 +4565,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="D146" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4574,7 +4583,7 @@
         <v>20</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="D147" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4589,7 +4598,7 @@
         <v>21</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
       <c r="D148" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4604,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="D149" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4616,10 +4625,10 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D150" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4634,7 +4643,7 @@
         <v>23</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="D151" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4649,7 +4658,7 @@
         <v>24</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="D152" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4664,7 +4673,7 @@
         <v>25</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="D153" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4679,7 +4688,7 @@
         <v>26</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="D154" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4694,7 +4703,7 @@
         <v>27</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="D155" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4706,10 +4715,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D156" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4721,10 +4730,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="D157" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4736,10 +4745,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D158" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4754,7 +4763,7 @@
         <v>28</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
       <c r="D159" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4766,10 +4775,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="D160" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4781,10 +4790,10 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D161" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4796,10 +4805,10 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
       <c r="D162" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4814,7 +4823,7 @@
         <v>29</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="D163" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4829,7 +4838,7 @@
         <v>30</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="D164" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4844,7 +4853,7 @@
         <v>31</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="D165" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4856,10 +4865,10 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="D166" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4871,10 +4880,10 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="D167" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4886,10 +4895,10 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>625</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="D168" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4901,10 +4910,10 @@
         <v>169</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
       <c r="D169" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4916,10 +4925,10 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
       <c r="D170" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4931,10 +4940,10 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="D171" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4946,10 +4955,10 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
       <c r="D172" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4961,10 +4970,10 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>499</v>
+        <v>475</v>
       </c>
       <c r="D173" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4976,10 +4985,10 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>500</v>
+        <v>476</v>
       </c>
       <c r="D174" s="3" t="str">
         <f t="shared" si="2"/>
@@ -4991,10 +5000,10 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="D175" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5006,10 +5015,10 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="D176" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5021,10 +5030,10 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="D177" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5036,10 +5045,10 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="D178" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5051,10 +5060,10 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="D179" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5066,10 +5075,10 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="D180" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5081,10 +5090,10 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>506</v>
+        <v>482</v>
       </c>
       <c r="D181" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5096,10 +5105,10 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="D182" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5111,10 +5120,10 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="D183" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5126,10 +5135,10 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="D184" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5141,10 +5150,10 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>134</v>
+        <v>634</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="D185" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5156,10 +5165,10 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="D186" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5171,10 +5180,10 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="D187" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5186,10 +5195,10 @@
         <v>188</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>136</v>
+        <v>637</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="D188" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5201,10 +5210,10 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>137</v>
+        <v>626</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="D189" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5216,10 +5225,10 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="D190" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5231,10 +5240,10 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="D191" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5246,10 +5255,10 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="D192" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5261,10 +5270,10 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="D193" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5276,10 +5285,10 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="D194" s="3" t="str">
         <f t="shared" si="2"/>
@@ -5291,10 +5300,10 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="D195" s="3" t="str">
         <f t="shared" ref="D195:D199" si="3">"a"&amp;ROW()&amp;".mp3"</f>
@@ -5306,10 +5315,10 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>282</v>
+        <v>627</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="D196" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5321,10 +5330,10 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="D197" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5336,10 +5345,10 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>231</v>
+        <v>628</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="D198" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5351,10 +5360,10 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="D199" s="3" t="str">
         <f t="shared" si="3"/>
@@ -5366,10 +5375,10 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>142</v>
+        <v>629</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="D200" s="3" t="str">
         <f>"A"&amp;ROW()&amp;".mp3"</f>
@@ -5381,10 +5390,10 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="D201" s="3" t="str">
         <f t="shared" ref="D201:D262" si="4">"A"&amp;ROW()&amp;".mp3"</f>
@@ -5396,10 +5405,10 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="D202" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5411,10 +5420,10 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="D203" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5426,10 +5435,10 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>283</v>
+        <v>630</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="D204" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5441,10 +5450,10 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="D205" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5456,10 +5465,10 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="D206" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5471,10 +5480,10 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>285</v>
+        <v>631</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="D207" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5486,25 +5495,25 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>647</v>
+        <v>621</v>
       </c>
       <c r="D208" s="3" t="str">
         <f t="shared" si="4"/>
         <v>A208.mp3</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>532</v>
+        <v>650</v>
       </c>
       <c r="D209" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5516,10 +5525,10 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>533</v>
+        <v>508</v>
       </c>
       <c r="D210" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5531,10 +5540,10 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="D211" s="3" t="str">
         <f>"A"&amp;ROW()&amp;".mp3"</f>
@@ -5546,10 +5555,10 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="D212" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5561,10 +5570,10 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>536</v>
+        <v>511</v>
       </c>
       <c r="D213" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5576,10 +5585,10 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>537</v>
+        <v>512</v>
       </c>
       <c r="D214" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5591,10 +5600,10 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="D215" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5606,10 +5615,10 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>539</v>
+        <v>514</v>
       </c>
       <c r="D216" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5621,10 +5630,10 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>540</v>
+        <v>515</v>
       </c>
       <c r="D217" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5636,10 +5645,10 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>541</v>
+        <v>516</v>
       </c>
       <c r="D218" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5651,10 +5660,10 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>542</v>
+        <v>517</v>
       </c>
       <c r="D219" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5666,10 +5675,10 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="D220" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5681,10 +5690,10 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="D221" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5696,10 +5705,10 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D222" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5711,10 +5720,10 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="D223" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5726,10 +5735,10 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="D224" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5741,10 +5750,10 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="D225" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5756,10 +5765,10 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="D226" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5771,10 +5780,10 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="D227" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5786,10 +5795,10 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>646</v>
+        <v>620</v>
       </c>
       <c r="D228" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5801,10 +5810,10 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>161</v>
+        <v>638</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>645</v>
+        <v>619</v>
       </c>
       <c r="D229" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5816,10 +5825,10 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>148</v>
+        <v>639</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>644</v>
+        <v>618</v>
       </c>
       <c r="D230" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5831,10 +5840,10 @@
         <v>231</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>616</v>
+        <v>590</v>
       </c>
       <c r="D231" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5846,10 +5855,10 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="D232" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5861,10 +5870,10 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="D233" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5876,10 +5885,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="D234" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5891,10 +5900,10 @@
         <v>235</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="D235" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5906,10 +5915,10 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="D236" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5921,10 +5930,10 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>617</v>
+        <v>591</v>
       </c>
       <c r="D237" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5936,10 +5945,10 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="D238" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5951,10 +5960,10 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="D239" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5966,10 +5975,10 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="D240" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5981,10 +5990,10 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="D241" s="3" t="str">
         <f t="shared" si="4"/>
@@ -5996,10 +6005,10 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="D242" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6011,10 +6020,10 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="D243" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6026,10 +6035,10 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="D244" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6041,10 +6050,10 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>296</v>
+        <v>635</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="D245" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6056,10 +6065,10 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="D246" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6071,10 +6080,10 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>643</v>
+        <v>617</v>
       </c>
       <c r="D247" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6086,10 +6095,10 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="D248" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6101,10 +6110,10 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>629</v>
+        <v>603</v>
       </c>
       <c r="D249" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6116,10 +6125,10 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>630</v>
+        <v>604</v>
       </c>
       <c r="D250" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6131,10 +6140,10 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>631</v>
+        <v>605</v>
       </c>
       <c r="D251" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6146,10 +6155,10 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>632</v>
+        <v>606</v>
       </c>
       <c r="D252" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6161,10 +6170,10 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>633</v>
+        <v>607</v>
       </c>
       <c r="D253" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6176,10 +6185,10 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>634</v>
+        <v>608</v>
       </c>
       <c r="D254" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6191,10 +6200,10 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>302</v>
+        <v>640</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="D255" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6206,10 +6215,10 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>636</v>
+        <v>610</v>
       </c>
       <c r="D256" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6221,10 +6230,10 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>637</v>
+        <v>611</v>
       </c>
       <c r="D257" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6236,10 +6245,10 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>638</v>
+        <v>612</v>
       </c>
       <c r="D258" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6251,10 +6260,10 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>639</v>
+        <v>613</v>
       </c>
       <c r="D259" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6266,10 +6275,10 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>307</v>
+        <v>643</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>640</v>
+        <v>614</v>
       </c>
       <c r="D260" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6281,10 +6290,10 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>628</v>
+        <v>602</v>
       </c>
       <c r="D261" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6296,10 +6305,10 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>627</v>
+        <v>601</v>
       </c>
       <c r="D262" s="3" t="str">
         <f t="shared" si="4"/>
@@ -6311,10 +6320,10 @@
         <v>263</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>626</v>
+        <v>600</v>
       </c>
       <c r="D263" s="3" t="str">
         <f t="shared" ref="D263:D267" si="5">"A"&amp;ROW()&amp;".mp3"</f>
@@ -6326,10 +6335,10 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>245</v>
+        <v>644</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>625</v>
+        <v>599</v>
       </c>
       <c r="D264" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6341,10 +6350,10 @@
         <v>265</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>624</v>
+        <v>598</v>
       </c>
       <c r="D265" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6356,10 +6365,10 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>623</v>
+        <v>597</v>
       </c>
       <c r="D266" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6371,10 +6380,10 @@
         <v>267</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>613</v>
+        <v>587</v>
       </c>
       <c r="D267" s="3" t="str">
         <f t="shared" si="5"/>
@@ -6386,10 +6395,10 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>622</v>
+        <v>596</v>
       </c>
       <c r="D268" s="3" t="str">
         <f>"A"&amp;ROW()&amp;".mp3"</f>
@@ -6401,10 +6410,10 @@
         <v>269</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="D269" s="3" t="str">
         <f t="shared" ref="D269:D319" si="6">"A"&amp;ROW()&amp;".mp3"</f>
@@ -6416,10 +6425,10 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>620</v>
+        <v>594</v>
       </c>
       <c r="D270" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6431,10 +6440,10 @@
         <v>271</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="D271" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6446,10 +6455,10 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="D272" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6461,10 +6470,10 @@
         <v>273</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="D273" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6476,20 +6485,25 @@
         <v>274</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C274" s="2"/>
+        <v>290</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="D274" s="3" t="str">
         <f t="shared" si="6"/>
         <v>A274.mp3</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>221</v>
+        <v>211</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>305</v>
       </c>
       <c r="D275" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6501,10 +6515,10 @@
         <v>276</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="D276" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6516,10 +6530,10 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="D277" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6531,10 +6545,10 @@
         <v>278</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>312</v>
+        <v>642</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="D278" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6546,10 +6560,10 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>313</v>
+        <v>641</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D279" s="3" t="str">
         <f>"A"&amp;ROW()&amp;".mp3"</f>
@@ -6561,10 +6575,10 @@
         <v>280</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="D280" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6576,10 +6590,10 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>155</v>
+        <v>645</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="D281" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6591,10 +6605,10 @@
         <v>282</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="D282" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6606,10 +6620,10 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="D283" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6621,10 +6635,10 @@
         <v>284</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="D284" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6636,10 +6650,10 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="D285" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6651,10 +6665,10 @@
         <v>286</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="D286" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6666,10 +6680,10 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="D287" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6681,10 +6695,10 @@
         <v>288</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="D288" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6696,10 +6710,10 @@
         <v>289</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="D289" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6711,10 +6725,10 @@
         <v>290</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="D290" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6726,10 +6740,10 @@
         <v>291</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="D291" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6741,10 +6755,10 @@
         <v>292</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>619</v>
+        <v>593</v>
       </c>
       <c r="D292" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6756,10 +6770,10 @@
         <v>293</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="D293" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6771,10 +6785,10 @@
         <v>294</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>618</v>
+        <v>592</v>
       </c>
       <c r="D294" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6786,10 +6800,10 @@
         <v>295</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="D295" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6801,10 +6815,10 @@
         <v>296</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>604</v>
+        <v>578</v>
       </c>
       <c r="D296" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6816,10 +6830,10 @@
         <v>297</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="D297" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6831,10 +6845,10 @@
         <v>298</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="D298" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6846,10 +6860,10 @@
         <v>299</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="D299" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6861,10 +6875,10 @@
         <v>300</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>605</v>
+        <v>579</v>
       </c>
       <c r="D300" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6876,10 +6890,10 @@
         <v>301</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="D301" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6891,10 +6905,10 @@
         <v>302</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="D302" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6906,10 +6920,10 @@
         <v>303</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="D303" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6921,10 +6935,10 @@
         <v>304</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>321</v>
+        <v>636</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="D304" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6936,10 +6950,10 @@
         <v>305</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="D305" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6951,10 +6965,10 @@
         <v>306</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="D306" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6966,10 +6980,10 @@
         <v>307</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="D307" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6981,10 +6995,10 @@
         <v>308</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="D308" s="3" t="str">
         <f t="shared" si="6"/>
@@ -6996,10 +7010,10 @@
         <v>309</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="D309" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7011,10 +7025,10 @@
         <v>310</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="D310" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7026,10 +7040,10 @@
         <v>311</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="D311" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7041,10 +7055,10 @@
         <v>312</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="D312" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7056,13 +7070,13 @@
         <v>313</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="D313" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
@@ -7070,10 +7084,10 @@
         <v>314</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="D314" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7085,10 +7099,10 @@
         <v>315</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="D315" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7100,10 +7114,10 @@
         <v>316</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="D316" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7115,10 +7129,10 @@
         <v>317</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="D317" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7130,10 +7144,10 @@
         <v>318</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="D318" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7145,10 +7159,10 @@
         <v>319</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>641</v>
+        <v>615</v>
       </c>
       <c r="D319" s="3" t="str">
         <f t="shared" si="6"/>
@@ -7160,10 +7174,10 @@
         <v>320</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="D320" s="3" t="str">
         <f>"A"&amp;ROW()&amp;".mp3"</f>
@@ -7175,10 +7189,10 @@
         <v>321</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="D321" s="3" t="str">
         <f t="shared" ref="D321:D327" si="7">"A"&amp;ROW()&amp;".mp3"</f>
@@ -7190,10 +7204,10 @@
         <v>322</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="D322" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7205,24 +7219,26 @@
         <v>323</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>602</v>
+        <v>648</v>
       </c>
       <c r="D323" s="3" t="str">
         <f t="shared" si="7"/>
         <v>A323.mp3</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" ht="144" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>324</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="C324" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>649</v>
+      </c>
       <c r="D324" s="3" t="str">
         <f t="shared" si="7"/>
         <v>A324.mp3</v>
@@ -7233,10 +7249,10 @@
         <v>325</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="D325" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7248,10 +7264,10 @@
         <v>326</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="D326" s="3" t="str">
         <f t="shared" si="7"/>
@@ -7263,9 +7279,11 @@
         <v>327</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C327" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>646</v>
+      </c>
       <c r="D327" s="3" t="str">
         <f t="shared" si="7"/>
         <v>A327.mp3</v>
